--- a/organization/master-stundenaufzeichnung.xlsx
+++ b/organization/master-stundenaufzeichnung.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20412"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15480" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Blatt1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="39">
   <si>
     <t>Datum</t>
   </si>
@@ -127,6 +127,15 @@
   </si>
   <si>
     <t>Masterarbeit ( ~3 Seiten)</t>
+  </si>
+  <si>
+    <t>Prototyp Entwicklung (Firefox Plugin:external skript support)</t>
+  </si>
+  <si>
+    <t>Prototyp Entwicklung (Firefox Plugin:id improvement, debugging)</t>
+  </si>
+  <si>
+    <t>Prototyp Entwicklung (Firefox Plugin: dom tree path support)</t>
   </si>
 </sst>
 </file>
@@ -715,10 +724,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E40"/>
+  <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1231,7 +1240,7 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="3">
-        <v>41357</v>
+        <v>41360</v>
       </c>
       <c r="B30" s="2">
         <v>0.33333333333333331</v>
@@ -1244,83 +1253,149 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="E30" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="3">
+        <v>41361</v>
+      </c>
+      <c r="B31" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="C31" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="D31" s="2">
+        <f t="shared" ref="D31:D35" si="2">C31-B31</f>
+        <v>0.375</v>
+      </c>
+      <c r="E31" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="3">
+        <v>41362</v>
+      </c>
+      <c r="B32" s="2">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="C32" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="D32" s="2">
+        <f t="shared" si="2"/>
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="E32" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="3">
+        <v>41363</v>
+      </c>
+      <c r="B33" s="2">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="C33" s="2">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D33" s="2">
+        <f t="shared" si="2"/>
+        <v>0.37500000000000006</v>
+      </c>
+      <c r="E33" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="3">
+        <v>41364</v>
+      </c>
+      <c r="B34" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="C34" s="2">
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="D34" s="2">
+        <f t="shared" si="2"/>
+        <v>0.45833333333333304</v>
+      </c>
+      <c r="E34" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="3"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="3"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="3"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="6" t="s">
+    <row r="35" spans="1:5">
+      <c r="A35" s="3"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="3"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B35" s="7" t="s">
+      <c r="B38" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C35" s="8">
-        <f>B39-(A36*24)</f>
-        <v>543</v>
-      </c>
-      <c r="D35" s="12">
-        <f>A36*24/B39</f>
-        <v>0.19555555555555559</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="9">
-        <f>SUM(D4:D34)</f>
-        <v>5.5000000000000009</v>
-      </c>
-      <c r="B36" s="7" t="s">
+      <c r="C38" s="8">
+        <f>B42-(A39*24)</f>
+        <v>503</v>
+      </c>
+      <c r="D38" s="12">
+        <f>A39*24/B42</f>
+        <v>0.25481481481481483</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="9">
+        <f>SUM(D4:D37)</f>
+        <v>7.166666666666667</v>
+      </c>
+      <c r="B39" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C36" s="5">
-        <f>B40-(A36*24)</f>
-        <v>693</v>
-      </c>
-      <c r="D36" s="12">
-        <f>A36*24/B40</f>
-        <v>0.16000000000000003</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="11"/>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="10" t="s">
+      <c r="C39" s="5">
+        <f>B43-(A39*24)</f>
+        <v>653</v>
+      </c>
+      <c r="D39" s="12">
+        <f>A39*24/B43</f>
+        <v>0.2084848484848485</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="11"/>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B38" s="10"/>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" s="10" t="s">
+      <c r="B41" s="10"/>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B39" s="10">
+      <c r="B42" s="10">
         <f>25*27</f>
         <v>675</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
-      <c r="A40" s="10" t="s">
+    <row r="43" spans="1:5">
+      <c r="A43" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B40" s="10">
+      <c r="B43" s="10">
         <f>30*27.5</f>
         <v>825</v>
       </c>

--- a/organization/master-stundenaufzeichnung.xlsx
+++ b/organization/master-stundenaufzeichnung.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="40">
   <si>
     <t>Datum</t>
   </si>
@@ -136,6 +136,9 @@
   </si>
   <si>
     <t>Prototyp Entwicklung (Firefox Plugin: dom tree path support)</t>
+  </si>
+  <si>
+    <t>TODO fehlende stunden (des ganzen monats aus kalender nachtragen….)</t>
   </si>
 </sst>
 </file>
@@ -724,10 +727,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E43"/>
+  <dimension ref="A1:E48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="A26" sqref="A26:XFD26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -943,7 +946,7 @@
         <v>0.91666666666666663</v>
       </c>
       <c r="D13" s="2">
-        <f t="shared" ref="D13:D30" si="1">C13-B13</f>
+        <f t="shared" ref="D13:D35" si="1">C13-B13</f>
         <v>0.25</v>
       </c>
       <c r="E13" t="s">
@@ -1167,235 +1170,271 @@
       </c>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="3">
-        <v>41351</v>
-      </c>
-      <c r="B26" s="2">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="C26" s="2">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="D26" s="2">
-        <f t="shared" si="1"/>
-        <v>0.16666666666666674</v>
-      </c>
-      <c r="E26" t="s">
-        <v>35</v>
-      </c>
+      <c r="A26" s="3"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="3">
-        <v>41352</v>
-      </c>
-      <c r="B27" s="2">
-        <v>0.375</v>
-      </c>
-      <c r="C27" s="2">
-        <v>0.66666666666666663</v>
-      </c>
+      <c r="A27" s="3"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
       <c r="D27" s="2">
         <f t="shared" si="1"/>
-        <v>0.29166666666666663</v>
+        <v>0</v>
       </c>
       <c r="E27" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="3">
-        <v>41355</v>
-      </c>
-      <c r="B28" s="2">
-        <v>0.625</v>
-      </c>
-      <c r="C28" s="2">
-        <v>0.91666666666666663</v>
-      </c>
-      <c r="D28" s="2">
-        <f t="shared" si="1"/>
-        <v>0.29166666666666663</v>
-      </c>
-      <c r="E28" t="s">
-        <v>33</v>
-      </c>
+      <c r="A28" s="3"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="3">
-        <v>41356</v>
-      </c>
-      <c r="B29" s="2">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="C29" s="2">
-        <v>0.75</v>
-      </c>
-      <c r="D29" s="2">
-        <f t="shared" si="1"/>
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="E29" t="s">
-        <v>33</v>
-      </c>
+      <c r="A29" s="3"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="3">
-        <v>41360</v>
-      </c>
-      <c r="B30" s="2">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="C30" s="2">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D30" s="2">
-        <f t="shared" si="1"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="E30" t="s">
-        <v>36</v>
-      </c>
+      <c r="A30" s="3"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="3">
-        <v>41361</v>
+        <v>41351</v>
       </c>
       <c r="B31" s="2">
-        <v>0.375</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="C31" s="2">
-        <v>0.75</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="D31" s="2">
-        <f t="shared" ref="D31:D35" si="2">C31-B31</f>
-        <v>0.375</v>
+        <f t="shared" si="1"/>
+        <v>0.16666666666666674</v>
       </c>
       <c r="E31" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="3">
+        <v>41352</v>
+      </c>
+      <c r="B32" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="C32" s="2">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D32" s="2">
+        <f t="shared" si="1"/>
+        <v>0.29166666666666663</v>
+      </c>
+      <c r="E32" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="3">
+        <v>41355</v>
+      </c>
+      <c r="B33" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="C33" s="2">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="D33" s="2">
+        <f t="shared" si="1"/>
+        <v>0.29166666666666663</v>
+      </c>
+      <c r="E33" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="3">
+        <v>41356</v>
+      </c>
+      <c r="B34" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C34" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="D34" s="2">
+        <f t="shared" si="1"/>
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E34" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="3">
+        <v>41360</v>
+      </c>
+      <c r="B35" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C35" s="2">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D35" s="2">
+        <f t="shared" si="1"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E35" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="3">
+        <v>41361</v>
+      </c>
+      <c r="B36" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="C36" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="D36" s="2">
+        <f t="shared" ref="D36:D39" si="2">C36-B36</f>
+        <v>0.375</v>
+      </c>
+      <c r="E36" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="3">
         <v>41362</v>
       </c>
-      <c r="B32" s="2">
+      <c r="B37" s="2">
         <v>0.29166666666666669</v>
       </c>
-      <c r="C32" s="2">
+      <c r="C37" s="2">
         <v>0.75</v>
       </c>
-      <c r="D32" s="2">
+      <c r="D37" s="2">
         <f t="shared" si="2"/>
         <v>0.45833333333333331</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E37" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="3">
+    <row r="38" spans="1:5">
+      <c r="A38" s="3">
         <v>41363</v>
       </c>
-      <c r="B33" s="2">
+      <c r="B38" s="2">
         <v>0.45833333333333331</v>
       </c>
-      <c r="C33" s="2">
+      <c r="C38" s="2">
         <v>0.83333333333333337</v>
       </c>
-      <c r="D33" s="2">
+      <c r="D38" s="2">
         <f t="shared" si="2"/>
         <v>0.37500000000000006</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E38" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="3">
+    <row r="39" spans="1:5">
+      <c r="A39" s="3">
         <v>41364</v>
       </c>
-      <c r="B34" s="2">
+      <c r="B39" s="2">
         <v>0.375</v>
       </c>
-      <c r="C34" s="2">
+      <c r="C39" s="2">
         <v>0.83333333333333304</v>
       </c>
-      <c r="D34" s="2">
+      <c r="D39" s="2">
         <f t="shared" si="2"/>
         <v>0.45833333333333304</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E39" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="3"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="3"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" s="6" t="s">
+    <row r="40" spans="1:5">
+      <c r="A40" s="3"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="3"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B38" s="7" t="s">
+      <c r="B43" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C38" s="8">
-        <f>B42-(A39*24)</f>
+      <c r="C43" s="8">
+        <f>B47-(A44*24)</f>
         <v>503</v>
       </c>
-      <c r="D38" s="12">
-        <f>A39*24/B42</f>
+      <c r="D43" s="12">
+        <f>A44*24/B47</f>
         <v>0.25481481481481483</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="9">
-        <f>SUM(D4:D37)</f>
+    <row r="44" spans="1:5">
+      <c r="A44" s="9">
+        <f>SUM(D4:D42)</f>
         <v>7.166666666666667</v>
       </c>
-      <c r="B39" s="7" t="s">
+      <c r="B44" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C39" s="5">
-        <f>B43-(A39*24)</f>
+      <c r="C44" s="5">
+        <f>B48-(A44*24)</f>
         <v>653</v>
       </c>
-      <c r="D39" s="12">
-        <f>A39*24/B43</f>
+      <c r="D44" s="12">
+        <f>A44*24/B48</f>
         <v>0.2084848484848485</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
-      <c r="A40" s="11"/>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="A41" s="10" t="s">
+    <row r="45" spans="1:5">
+      <c r="A45" s="11"/>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B41" s="10"/>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="A42" s="10" t="s">
+      <c r="B46" s="10"/>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B42" s="10">
+      <c r="B47" s="10">
         <f>25*27</f>
         <v>675</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
-      <c r="A43" s="10" t="s">
+    <row r="48" spans="1:5">
+      <c r="A48" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B43" s="10">
+      <c r="B48" s="10">
         <f>30*27.5</f>
         <v>825</v>
       </c>
